--- a/src/main/webapp/downloadFile/급여관리 등록 양식.xlsx
+++ b/src/main/webapp/downloadFile/급여관리 등록 양식.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JHJ\JHJ\999.프로젝트\11.캠틱\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\intellij-workspace\git\DJ_CAMTIC\src\main\webapp\downloadFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4454CE72-5934-4980-88EC-8C6EA58389CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92EF647-6E4D-4092-9083-FB969530DDDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43200" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{F321D75C-2F90-4F75-B328-76E9DCBA4608}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F321D75C-2F90-4F75-B328-76E9DCBA4608}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>* 필수 정보를 모두 입력해주세요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,6 +89,14 @@
   </si>
   <si>
     <t>ex)10,000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 직원번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex)1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -185,7 +193,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -245,6 +253,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -288,38 +305,38 @@
     <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -636,110 +653,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73636589-33A7-4360-B47D-FDF8211FC1EB}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F12" sqref="F12:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="8" customWidth="1"/>
-    <col min="2" max="2" width="17.75" style="8" customWidth="1"/>
-    <col min="3" max="3" width="18.75" style="7" customWidth="1"/>
-    <col min="4" max="5" width="18.75" style="16" customWidth="1"/>
-    <col min="6" max="7" width="21.25" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="16.25" style="8" customWidth="1"/>
+    <col min="3" max="3" width="17.75" style="8" customWidth="1"/>
+    <col min="4" max="4" width="18.75" style="7" customWidth="1"/>
+    <col min="5" max="6" width="18.75" style="11" customWidth="1"/>
+    <col min="7" max="8" width="21.25" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
-    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:8" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="C3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="19"/>
       <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="10" t="s">
+    <row r="4" spans="1:8" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="E4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="F4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="G4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="H4" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="E5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="F5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="G5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="H5" s="12" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:H3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/webapp/downloadFile/급여관리 등록 양식.xlsx
+++ b/src/main/webapp/downloadFile/급여관리 등록 양식.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\intellij-workspace\git\DJ_CAMTIC\src\main\webapp\downloadFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92EF647-6E4D-4092-9083-FB969530DDDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A350882-404D-4275-AB5F-566A37B00AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F321D75C-2F90-4F75-B328-76E9DCBA4608}"/>
+    <workbookView xWindow="33045" yWindow="2670" windowWidth="21600" windowHeight="11385" xr2:uid="{F321D75C-2F90-4F75-B328-76E9DCBA4608}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -92,11 +92,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>* 직원번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ex)1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 사번</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -317,26 +317,26 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -357,9 +357,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -397,7 +397,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -503,7 +503,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -645,7 +645,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -656,7 +656,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:F13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -670,46 +670,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14"/>
@@ -735,7 +735,7 @@
     </row>
     <row r="5" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>10</v>
